--- a/raxml_trees/tree_alignment_justifications.xlsx
+++ b/raxml_trees/tree_alignment_justifications.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gwenddolenkettenburg/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gwenddolenkettenburg/Desktop/developer/mada-bat-picornavirus/raxml_trees/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25427AF-AEA5-6342-991D-723551CBAC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8D7206-F2BB-924D-8C51-E14B9B6A03BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="300" yWindow="740" windowWidth="16860" windowHeight="17260" xr2:uid="{20BFC515-67A4-9D49-B0EC-0E29050516D2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>alignment</t>
   </si>
@@ -129,9 +129,6 @@
   </si>
   <si>
     <t>~1300bp</t>
-  </si>
-  <si>
-    <t>~!200bp</t>
   </si>
   <si>
     <t>picornavirales_refseq_withplantinsect_P1</t>
@@ -509,7 +506,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -702,7 +699,7 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>395</v>
@@ -739,10 +736,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12">
         <v>394</v>
@@ -759,7 +756,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
